--- a/download/generated situation/état_des_taxes_xlsx/état_des_taxes_5_2023.xlsx
+++ b/download/generated situation/état_des_taxes_xlsx/état_des_taxes_5_2023.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,16 +429,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>004/ZZZ/AV2</v>
+        <v>999/CCC</v>
       </c>
       <c r="B2" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="C2" t="str">
-        <v>IR801997</v>
+        <v>I150156</v>
       </c>
       <c r="D2" t="str">
-        <v>NOUBAIL MOHAMMED</v>
+        <v>LATIFA BADRANE</v>
       </c>
       <c r="E2" t="str">
         <v>non</v>
@@ -467,8 +467,8 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="str">
-        <v>--</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
         <v>1000</v>
@@ -476,25 +476,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>004/ZZZ/AV2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>Q251990</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>NOUBAIL MOUNTASSIR</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>non</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G3" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -514,63 +514,16 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="str">
-        <v>--</v>
+      <c r="N3">
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H4">
-        <v>2000</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
   </ignoredErrors>
 </worksheet>
 </file>